--- a/Excel Data/2024_11_List.xlsx
+++ b/Excel Data/2024_11_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mibtn\source\repos\YouTubeViewsClassifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbouazizi\source\repos\YouTubeViewsClassifier\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD9519F-8B66-4333-9D85-278B4E2F9799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1AF4E7-A46B-4D69-A8E4-2DA869EC8772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -262,10 +262,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,13 +296,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -576,7 +587,7 @@
   <dimension ref="A1:A73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD76"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,11 +956,14 @@
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A73" r:id="rId1" xr:uid="{42CB3760-27B7-43A2-BF73-54610B6BAE8F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Excel Data/2024_11_List.xlsx
+++ b/Excel Data/2024_11_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbouazizi\source\repos\YouTubeViewsClassifier\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mibtn\source\repos\YouTubeViewsClassifier\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1AF4E7-A46B-4D69-A8E4-2DA869EC8772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DAAA0B-8C8F-4A5C-9D93-0963D10B35A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>https://www.youtube.com/watch?v=tDAnoUIbMHY</t>
   </si>
@@ -256,6 +256,87 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=wFUXnNWaC84</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9FN2UTnSIK4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Au4aQwGZ9RE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KJo6EvHmfJc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cx8znQmNhbI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwL4jMffY1k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WBxfJLCOvSg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GKCNKyeTM3o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RfCmU0_C7Mg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AS8WfBQ-VIQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TYWHU6Hm_vc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2qD2midOK2Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UFuFDvLWILA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YdxFZ5Wx9ck</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O45gTQzTFWE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GBi7L149fAo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yY1F6l7_wIg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQfYXzh4-h8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IKXqtZLhAwE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=it6QShLLed0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mUyEIvZtX0M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=moQ9_G79TIQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HMJqTpviqmw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=on587D3jqr0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ShdFbusjHDw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mViGM6YucE4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bogYA0f-mLA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4vhMd6_DHyM</t>
   </si>
 </sst>
 </file>
@@ -584,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6883745D-1C4A-4D19-8057-9DD7E66593D8}">
-  <dimension ref="A1:A73"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,187 +683,187 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
+      <c r="A4" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
+      <c r="A9" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
+      <c r="A16" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
@@ -792,177 +873,320 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>54</v>
+      <c r="A55" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>62</v>
+      <c r="A63" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A73" r:id="rId1" xr:uid="{42CB3760-27B7-43A2-BF73-54610B6BAE8F}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{CC22B228-336F-4CF9-BEE6-465B32F5F3E4}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{9A6CAA8D-ED19-4A32-8F0B-560D9690C57F}"/>
+    <hyperlink ref="A16" r:id="rId3" xr:uid="{C05731BA-4593-4896-B361-79FC0EE4696E}"/>
+    <hyperlink ref="A30" r:id="rId4" xr:uid="{65F8E308-326D-4A82-A4DC-265799EF98AB}"/>
+    <hyperlink ref="A38" r:id="rId5" xr:uid="{20947E49-BC5A-42CD-95A6-3D7A54758D3D}"/>
+    <hyperlink ref="A55" r:id="rId6" xr:uid="{AEABCF07-A56A-4AB2-B46A-54054867E42A}"/>
+    <hyperlink ref="A63" r:id="rId7" xr:uid="{C64CB8A3-854B-4AD8-AAA2-2EFC676A2F42}"/>
+    <hyperlink ref="A90" r:id="rId8" xr:uid="{548495CF-E37E-4E50-AE05-00E76F90D549}"/>
+    <hyperlink ref="A98" r:id="rId9" xr:uid="{ABBE3CC5-9AC7-4BD5-A16E-C67760BC8267}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
